--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_19-26.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_19-26.xlsx
@@ -173,6 +173,9 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>DIMICAP FACIAL WASH 250 ML</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -444,6 +447,9 @@
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>لزق حبوب</t>
   </si>
   <si>
     <t>مناديل FINE</t>
@@ -1799,17 +1805,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1825,17 +1831,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1843,7 +1849,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1851,17 +1857,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1869,7 +1875,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1877,17 +1883,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1903,13 +1909,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1929,17 +1935,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1955,17 +1961,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1981,17 +1987,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -2007,17 +2013,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2033,17 +2039,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2059,13 +2065,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -2085,13 +2091,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -2111,17 +2117,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>30.670000000000002</v>
+        <v>34</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2137,17 +2143,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>100</v>
+        <v>30.670000000000002</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2163,17 +2169,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2189,17 +2195,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2215,17 +2221,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2241,13 +2247,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2267,13 +2273,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>-290</v>
+        <v>39</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2293,13 +2299,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>200</v>
+        <v>-290</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2319,13 +2325,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2345,13 +2351,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2371,13 +2377,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2403,11 +2409,11 @@
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>72.5</v>
+        <v>55</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2423,17 +2429,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>27.329999999999998</v>
+        <v>72.5</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2441,7 +2447,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2449,17 +2455,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>31</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2475,13 +2481,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2507,7 +2513,7 @@
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2527,17 +2533,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>-57</v>
+        <v>75</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2553,17 +2559,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>39</v>
+        <v>-57</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2579,17 +2585,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2605,17 +2611,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2631,17 +2637,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2649,7 +2655,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2657,13 +2663,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>76.439999999999998</v>
+        <v>16</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2683,17 +2689,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>135</v>
+        <v>76.439999999999998</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2709,17 +2715,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2727,7 +2733,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2735,17 +2741,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2761,17 +2767,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2787,17 +2793,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2813,17 +2819,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2845,11 +2851,11 @@
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2865,13 +2871,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2897,11 +2903,11 @@
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2917,17 +2923,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2943,13 +2949,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>7.0499999999999998</v>
+        <v>67</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2969,13 +2975,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>47.670000000000002</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -2987,7 +2993,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2995,17 +3001,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>89.099999999999994</v>
+        <v>47.670000000000002</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3021,17 +3027,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>-185</v>
+        <v>89.099999999999994</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3047,17 +3053,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>71</v>
+        <v>-185</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3073,17 +3079,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>45.5</v>
+        <v>71</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3091,7 +3097,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3099,17 +3105,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>60</v>
+        <v>45.5</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3131,7 +3137,7 @@
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3151,13 +3157,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3183,11 +3189,11 @@
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3203,17 +3209,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3229,13 +3235,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3255,17 +3261,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3281,13 +3287,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
@@ -3307,13 +3313,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3333,17 +3339,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3351,7 +3357,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3359,17 +3365,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>124</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3377,7 +3383,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3385,17 +3391,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>224</v>
+        <v>12.5</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>58</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3411,17 +3417,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3437,13 +3443,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
@@ -3463,7 +3469,7 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
@@ -3489,13 +3495,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
@@ -3507,7 +3513,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3515,13 +3521,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
@@ -3541,17 +3547,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>134</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3559,7 +3565,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3567,17 +3573,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3585,7 +3591,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3593,17 +3599,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>9</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3619,13 +3625,13 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
@@ -3645,13 +3651,13 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
@@ -3671,13 +3677,13 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
@@ -3689,7 +3695,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3697,13 +3703,13 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>68.599999999999994</v>
+        <v>10</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
@@ -3723,13 +3729,13 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>15</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
@@ -3749,13 +3755,13 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
@@ -3767,7 +3773,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3775,51 +3781,103 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>70</v>
+        <v>44.549999999999997</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" ht="25.5" customHeight="1">
+      <c r="A110" s="6">
+        <v>107</v>
+      </c>
+      <c t="s" r="B110" s="7">
+        <v>147</v>
+      </c>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c t="s" r="H110" s="8">
+        <v>148</v>
+      </c>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="9">
+        <v>30</v>
+      </c>
+      <c r="M110" s="9"/>
+      <c t="s" r="N110" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" ht="24.75" customHeight="1">
+      <c r="A111" s="6">
+        <v>108</v>
+      </c>
+      <c t="s" r="B111" s="7">
+        <v>149</v>
+      </c>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c t="s" r="H111" s="8">
+        <v>148</v>
+      </c>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="9">
+        <v>70</v>
+      </c>
+      <c r="M111" s="9"/>
+      <c t="s" r="N111" s="7">
         <v>23</v>
       </c>
     </row>
-    <row r="110" ht="26.25" customHeight="1">
-      <c r="K110" s="10">
-        <v>5129.8599999999997</v>
-      </c>
-      <c r="L110" s="10"/>
-      <c r="M110" s="10"/>
-      <c r="N110" s="10"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="11">
-        <v>148</v>
-      </c>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c t="s" r="F111" s="12">
-        <v>149</v>
-      </c>
-      <c r="G111" s="12"/>
-      <c r="H111" s="13"/>
-      <c t="s" r="I111" s="14">
+    <row r="112" ht="26.25" customHeight="1">
+      <c r="K112" s="10">
+        <v>5503.4099999999999</v>
+      </c>
+      <c r="L112" s="10"/>
+      <c r="M112" s="10"/>
+      <c r="N112" s="10"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="11">
         <v>150</v>
       </c>
-      <c r="J111" s="14"/>
-      <c r="K111" s="14"/>
-      <c r="L111" s="14"/>
-      <c r="M111" s="14"/>
-      <c r="N111" s="14"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c t="s" r="F113" s="12">
+        <v>151</v>
+      </c>
+      <c r="G113" s="12"/>
+      <c r="H113" s="13"/>
+      <c t="s" r="I113" s="14">
+        <v>152</v>
+      </c>
+      <c r="J113" s="14"/>
+      <c r="K113" s="14"/>
+      <c r="L113" s="14"/>
+      <c r="M113" s="14"/>
+      <c r="N113" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="329">
+  <mergeCells count="335">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4145,10 +4203,16 @@
     <mergeCell ref="B109:G109"/>
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
-    <mergeCell ref="K110:N110"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="I111:N111"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="K112:N112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="I113:N113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
